--- a/biology/Mycologie/Merulius_tremellosus/Merulius_tremellosus.xlsx
+++ b/biology/Mycologie/Merulius_tremellosus/Merulius_tremellosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Merulius tremellosus, de son nom vernaculaire, la mérule tremblante ou tremblotante, est un champignon saprophyte non comestible, de consistance flexible et molle et parfois responsable de la destruction des bois de charpente de maisons anciennes. Il fait partie du genre Merulius dans la famille des Meruliaceae de l'ordre des Polyporales.
 </t>
@@ -513,41 +525,83 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Merulius tremellosus Schrad. 1794[1]
-Synonymes
-Merulius imbricatus Balf.-Browne 1955
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Merulius tremellosus Schrad. 1794
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Merulius_tremellosus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merulius_tremellosus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Merulius imbricatus Balf.-Browne 1955
 Phlebia tremellosa (Schrad.) Nakasone &amp; Burds. 1984
 Sesia tremellosa (Schrad.) Kuntze 1891
 Tremellosum Xylomyzon (Schrad.) Pers. 1825</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Merulius_tremellosus</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Merulius_tremellosus</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore
 Hyménophore de 2 à 7 cm, en formes irrégulières superposées et étalées mais parfois lobées, gélatineuse, à surface hérissée d'aspérités ayant l'aspect d'aiguillons ou paraissant laineuse.
@@ -565,37 +619,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Merulius_tremellosus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Merulius_tremellosus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Saison</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presque toute l'année mais surtout en automne, jusqu'au début de l'hiver.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -617,12 +640,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Saprophyte, sur les souches, troncs et branches de feuillus et de conifères mais surtout des hêtres.
+          <t>Saison</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presque toute l'année mais surtout en automne, jusqu'au début de l'hiver.
 </t>
         </is>
       </c>
@@ -648,12 +673,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comestibilité</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Non comestible.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saprophyte, sur les souches, troncs et branches de feuillus et de conifères mais surtout des hêtres.
 </t>
         </is>
       </c>
@@ -679,10 +706,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Non comestible.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Merulius_tremellosus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Merulius_tremellosus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Confusion</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Parfois possible avec Phlebia radiata lorsque les couleurs sont plus soutenues.
 </t>
